--- a/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009468</t>
+          <t>007119</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时健康成长主题双周定期可赎回混合A</t>
+          <t>睿远成长价值混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>304.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009469</t>
+          <t>008969</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时健康成长主题双周定期可赎回混合C</t>
+          <t>睿远均衡价值三年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>137.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>68.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.93</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.06</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>53.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.07</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.95</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>570006</t>
+          <t>009468</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺德中小盘混合</t>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>23.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006973</t>
+          <t>007120</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平睿盈混合A</t>
+          <t>睿远成长价值混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.81</t>
+          <t>34.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0788</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007669</t>
+          <t>161914</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太平睿盈混合C</t>
+          <t>万家创业板2年定期开放混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22.81</t>
+          <t>18.86</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161914</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合A</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>009931</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>淳厚欣享一年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009931</t>
+          <t>008186</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合A</t>
+          <t>淳厚信睿核心精选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -782,15 +892,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>92.51</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.59</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007119</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>睿远成长价值混合A</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007120</t>
+          <t>009469</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>睿远成长价值混合C</t>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008186</t>
+          <t>008187</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合A</t>
+          <t>淳厚信睿核心精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>93.67</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>3.65</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008187</t>
+          <t>006973</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合C</t>
+          <t>太平睿盈混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008969</t>
+          <t>570006</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合A</t>
+          <t>诺德中小盘混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -940,25 +1110,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>007669</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>太平睿盈混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007923</t>
+          <t>008969</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>方正富邦天鑫灵活配置混合A</t>
+          <t>睿远均衡价值三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>152.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007924</t>
+          <t>050026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>方正富邦天鑫灵活配置混合C</t>
+          <t>博时医疗保健行业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>56.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161914</t>
+          <t>110023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合A</t>
+          <t>易方达医疗保健行业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>43.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>161914</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>万家创业板2年定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.05</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.33</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9285</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010268</t>
+          <t>009468</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平睿安混合A</t>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010269</t>
+          <t>008284</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平睿安混合C</t>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5657</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010994</t>
+          <t>008285</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时创新经济混合A</t>
+          <t>易方达全球医药行业混合（QDII）美元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>51.39</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5657</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010995</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时创新经济混合C</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>51.39</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5534</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>050018</t>
+          <t>010994</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时行业轮动混合</t>
+          <t>博时创新经济混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>51.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>050026</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合A</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.85</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>110023</t>
+          <t>010268</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达医疗保健行业混合</t>
+          <t>太平睿安混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008969</t>
+          <t>050018</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合A</t>
+          <t>博时行业轮动混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>009469</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008284</t>
+          <t>007923</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
+          <t>方正富邦天鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008285</t>
+          <t>007924</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
+          <t>方正富邦天鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009468</t>
+          <t>010995</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时健康成长主题双周定期可赎回混合A</t>
+          <t>博时创新经济混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>51.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009469</t>
+          <t>010269</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时健康成长主题双周定期可赎回混合C</t>
+          <t>太平睿安混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>167.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4560</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0267</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7993</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2170,4 +2171,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>159.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2531,4 +2532,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2540,7 +2541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,17 +2552,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2571,14 +2592,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.5</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2587,14 +2630,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0235</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.27</v>
       </c>
     </row>
     <row r="4">
@@ -2603,14 +2668,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.66</v>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8314</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2619,13 +2706,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>17</v>
       </c>
       <c r="D5" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
         <v>28.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2901,7 +2902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2912,17 +2913,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2932,14 +2953,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.21</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>141.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9527</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2948,14 +2991,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.5</v>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5326</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2964,14 +3029,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.27</v>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2980,14 +3067,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.66</v>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2996,13 +3105,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>17</v>
       </c>
       <c r="D6" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
         <v>28.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3262,7 +3263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3273,17 +3274,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3293,14 +3314,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.94</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>164.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4921</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3309,14 +3352,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.21</v>
       </c>
     </row>
     <row r="4">
@@ -3325,14 +3390,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.5</v>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8185</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3341,14 +3428,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.27</v>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3357,14 +3466,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.66</v>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3373,13 +3504,599 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>17</v>
       </c>
       <c r="D7" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
         <v>28.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,699 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007119</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>睿远成长价值混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>304.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.6492</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008969</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>137.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.1643</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>050026</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时医疗保健行业混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>68.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.1450</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D6" t="n">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>110023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达医疗保健行业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>53.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.6284</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009468</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时健康成长主题双周定期可赎回混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2815</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007120</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>睿远成长价值混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>34.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0788</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9656</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008970</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6771</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009931</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>16.79</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6028</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008186</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3168</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009939</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1554</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1341</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009469</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时健康成长主题双周定期可赎回混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1027</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008187</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1015</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006973</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>太平睿盈混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>22.81</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>570006</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>诺德中小盘混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007669</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>太平睿盈混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>22.81</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1180,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1220,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>152.18</t>
+          <t>164.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>91.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.5850</t>
+          <t>7.4921</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1248,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050026</t>
+          <t>000031</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合A</t>
+          <t>华夏复兴混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.77</t>
+          <t>30.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.85</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.6162</t>
+          <t>1.6181</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1286,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110023</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达医疗保健行业混合</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.24</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>91.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.0063</t>
+          <t>0.8185</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1324,32 +770,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161914</t>
+          <t>010676</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合A</t>
+          <t>光大保德信新机遇混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.42</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9285</t>
+          <t>0.1969</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1362,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009468</t>
+          <t>010268</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时健康成长主题双周定期可赎回混合A</t>
+          <t>太平睿安混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>39.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9074</t>
+          <t>0.1936</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1400,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008284</t>
+          <t>006973</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
+          <t>太平睿盈混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5657</t>
+          <t>0.1595</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1438,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008285</t>
+          <t>008313</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
+          <t>光大保德信研究精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5657</t>
+          <t>0.1404</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1476,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.08</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.45</t>
+          <t>87.83</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5534</t>
+          <t>0.1061</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1514,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010994</t>
+          <t>011082</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时创新经济混合A</t>
+          <t>国投瑞银医疗保健混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>51.39</t>
+          <t>87.83</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1634</t>
+          <t>0.1061</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1552,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>014053</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>太平睿庆混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>38.12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1396</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1590,32 +1036,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010268</t>
+          <t>007669</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太平睿安混合A</t>
+          <t>太平睿盈混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1360</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1628,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>050018</t>
+          <t>007481</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时行业轮动混合</t>
+          <t>华夏逸享健康灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>75.65</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1222</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1666,36 +1112,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009469</t>
+          <t>005520</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时健康成长主题双周定期可赎回混合C</t>
+          <t>国投瑞银创新医疗灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>87.75</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1217</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1704,32 +1150,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007923</t>
+          <t>014054</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>方正富邦天鑫灵活配置混合A</t>
+          <t>太平睿庆混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>38.12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1153</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1742,32 +1188,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007924</t>
+          <t>010269</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>方正富邦天鑫灵活配置混合C</t>
+          <t>太平睿安混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>39.85</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1153</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1780,36 +1226,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010995</t>
+          <t>015073</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时创新经济混合C</t>
+          <t>华夏复兴混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>51.39</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1818,36 +1264,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010269</t>
+          <t>015066</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>太平睿安混合C</t>
+          <t>华夏逸享健康灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>75.65</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1882,7 +1326,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1922,26 +1366,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>167.69</t>
+          <t>141.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.64</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.7976</t>
+          <t>4.9527</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1950,36 +1394,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050026</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合A</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60.05</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.4560</t>
+          <t>0.5326</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1988,36 +1432,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110023</t>
+          <t>006973</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达医疗保健行业混合</t>
+          <t>太平睿盈混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.18</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>29.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.0267</t>
+          <t>0.2025</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2026,36 +1470,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>010268</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>太平睿安混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.19</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.64</t>
+          <t>40.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7993</t>
+          <t>0.1639</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2064,32 +1508,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010268</t>
+          <t>007669</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平睿安混合A</t>
+          <t>太平睿盈混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29.84</t>
+          <t>29.33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1784</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2102,36 +1546,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010269</t>
+          <t>014053</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平睿安混合C</t>
+          <t>太平睿庆混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29.84</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2140,36 +1584,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011895</t>
+          <t>014054</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合C</t>
+          <t>太平睿庆混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +1686,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2244,26 +1726,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>159.35</t>
+          <t>59.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.0553</t>
+          <t>2.7737</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2282,26 +1764,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.59</t>
+          <t>51.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.98</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5882</t>
+          <t>2.0235</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2320,26 +1802,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.68</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6338</t>
+          <t>0.8314</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2358,26 +1840,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36.96</t>
+          <t>39.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1341</t>
+          <t>0.2394</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2401,21 +1883,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.2370</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2434,26 +1916,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2462,36 +1944,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011895</t>
+          <t>010269</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合C</t>
+          <t>太平睿安混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.98</t>
+          <t>39.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2500,36 +1982,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010269</t>
+          <t>011895</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太平睿安混合C</t>
+          <t>博时医疗保健行业混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>36.96</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2564,7 +2046,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2604,26 +2086,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.65</t>
+          <t>159.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7737</t>
+          <t>6.0553</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2642,26 +2124,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.62</t>
+          <t>52.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>82.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0235</t>
+          <t>1.5882</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2680,26 +2162,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>16.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8314</t>
+          <t>0.6338</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2718,26 +2200,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39.48</t>
+          <t>36.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2394</t>
+          <t>0.1341</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2761,21 +2243,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29.12</t>
+          <t>20.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2370</t>
+          <t>0.0582</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2794,26 +2276,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29.12</t>
+          <t>20.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0961</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2822,36 +2304,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010269</t>
+          <t>011895</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太平睿安混合C</t>
+          <t>博时医疗保健行业混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>39.48</t>
+          <t>82.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2860,36 +2342,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011895</t>
+          <t>010269</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合C</t>
+          <t>太平睿安混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>36.96</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2924,7 +2406,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2964,26 +2446,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>141.91</t>
+          <t>167.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>86.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.9527</t>
+          <t>7.7976</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2992,36 +2474,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>050026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>博时医疗保健行业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>60.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>89.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5326</t>
+          <t>2.4560</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3030,36 +2512,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006973</t>
+          <t>110023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太平睿盈混合A</t>
+          <t>易方达医疗保健行业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>51.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29.33</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2025</t>
+          <t>2.0267</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3068,36 +2550,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010268</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太平睿安混合A</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>17.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>40.12</t>
+          <t>86.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1639</t>
+          <t>0.7993</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3106,32 +2588,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007669</t>
+          <t>010268</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平睿盈混合C</t>
+          <t>太平睿安混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29.33</t>
+          <t>29.84</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0515</t>
+          <t>0.1784</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3144,36 +2626,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014053</t>
+          <t>010269</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平睿庆混合A</t>
+          <t>太平睿安混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>29.84</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0298</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3182,74 +2664,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014054</t>
+          <t>011895</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太平睿庆混合C</t>
+          <t>博时医疗保健行业混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>89.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010269</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>太平睿安混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>40.12</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3284,7 +2728,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3324,26 +2768,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>164.30</t>
+          <t>152.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>88.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.4921</t>
+          <t>5.5850</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3352,36 +2796,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000031</t>
+          <t>050026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏复兴混合</t>
+          <t>博时医疗保健行业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.88</t>
+          <t>56.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>86.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.6181</t>
+          <t>3.6162</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3390,36 +2834,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>110023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>易方达医疗保健行业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>43.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8185</t>
+          <t>2.0063</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3428,32 +2872,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010676</t>
+          <t>161914</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>光大保德信新机遇混合</t>
+          <t>万家创业板2年定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>17.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1969</t>
+          <t>0.9285</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3466,36 +2910,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010268</t>
+          <t>009468</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平睿安混合A</t>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>39.85</t>
+          <t>89.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1936</t>
+          <t>0.9074</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3504,36 +2948,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006973</t>
+          <t>008284</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平睿盈混合A</t>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1595</t>
+          <t>0.5657</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3542,36 +2986,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008313</t>
+          <t>008285</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>光大保德信研究精选混合</t>
+          <t>易方达全球医药行业混合（QDII）美元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1404</t>
+          <t>0.5657</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -3580,36 +3024,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.83</t>
+          <t>88.45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1061</t>
+          <t>0.5534</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -3618,36 +3062,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011082</t>
+          <t>010994</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健混合C</t>
+          <t>博时创新经济混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.83</t>
+          <t>51.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1061</t>
+          <t>0.1634</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -3656,36 +3100,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>014053</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太平睿庆混合A</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>38.12</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0592</t>
+          <t>0.1396</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -3694,32 +3138,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007669</t>
+          <t>010268</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太平睿盈混合C</t>
+          <t>太平睿安混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>0.1360</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -3732,36 +3176,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007481</t>
+          <t>050018</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏逸享健康灵活配置混合</t>
+          <t>博时行业轮动混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.65</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0278</t>
+          <t>0.1222</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -3770,36 +3214,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005520</t>
+          <t>009469</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国投瑞银创新医疗灵活配置混合</t>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.75</t>
+          <t>89.30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.1217</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -3808,32 +3252,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>014054</t>
+          <t>007923</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太平睿庆混合C</t>
+          <t>方正富邦天鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>38.12</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0109</t>
+          <t>0.1153</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -3846,32 +3290,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010269</t>
+          <t>007924</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太平睿安混合C</t>
+          <t>方正富邦天鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>39.85</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.1153</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -3884,36 +3328,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>015073</t>
+          <t>010995</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华夏复兴混合C</t>
+          <t>博时创新经济混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>51.39</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0146</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -3922,34 +3366,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>015066</t>
+          <t>010269</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华夏逸享健康灵活配置混合C</t>
+          <t>太平睿安混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>75.65</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3963,144 +3409,698 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.98</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>304.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>137.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0788</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
-        <v>13.27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>17</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15.66</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>28.12</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>10.98</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>5.94</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>6.21</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>8.5</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>13.27</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>15.66</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>17</v>
       </c>
       <c r="D8" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
         <v>28.12</v>
       </c>
     </row>
@@ -600,6 +617,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>121.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏复兴混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7943</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5863</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3705</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3137</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1292,366 +2201,6 @@
       </c>
       <c r="H18" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008969</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>141.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.9527</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008970</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5326</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006973</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>太平睿盈混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29.33</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2025</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010268</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平睿安混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>40.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1639</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007669</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>太平睿盈混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0515</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014053</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>太平睿庆混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>014054</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>太平睿庆混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010269</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>太平睿安混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>40.12</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1726,26 +2275,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.65</t>
+          <t>141.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7737</t>
+          <t>4.9527</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1754,32 +2303,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050026</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合A</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.62</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0235</t>
+          <t>0.5326</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1792,36 +2341,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>006973</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>太平睿盈混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>29.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8314</t>
+          <t>0.2025</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1840,22 +2389,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39.48</t>
+          <t>40.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2394</t>
+          <t>0.1639</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1868,32 +2417,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006973</t>
+          <t>007669</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平睿盈混合A</t>
+          <t>太平睿盈混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29.12</t>
+          <t>29.33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2370</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1906,36 +2455,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007669</t>
+          <t>014053</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平睿盈混合C</t>
+          <t>太平睿庆混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29.12</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0961</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1944,36 +2493,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010269</t>
+          <t>014054</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太平睿安混合C</t>
+          <t>太平睿庆混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>39.48</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1982,36 +2531,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011895</t>
+          <t>010269</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合C</t>
+          <t>太平睿安混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>40.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2046,7 +2595,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2086,26 +2635,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>159.35</t>
+          <t>59.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.0553</t>
+          <t>2.7737</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2124,26 +2673,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.59</t>
+          <t>51.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.98</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5882</t>
+          <t>2.0235</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2162,26 +2711,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.68</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6338</t>
+          <t>0.8314</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2200,26 +2749,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36.96</t>
+          <t>39.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1341</t>
+          <t>0.2394</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2243,21 +2792,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.2370</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2276,26 +2825,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2304,36 +2853,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011895</t>
+          <t>010269</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合C</t>
+          <t>太平睿安混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.98</t>
+          <t>39.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2342,36 +2891,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010269</t>
+          <t>011895</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太平睿安混合C</t>
+          <t>博时医疗保健行业混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>36.96</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2380,6 +2929,366 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>159.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2701,7 +3610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3403,7 +4312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300298-三诺生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>14.29</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>10.98</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>5.94</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>6.21</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>8.5</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>13.27</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>15.66</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>17</v>
       </c>
       <c r="D9" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n">
         <v>28.12</v>
       </c>
     </row>
@@ -616,7 +633,2511 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>304.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>137.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0788</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8845</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0322</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏复兴混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3565</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9802</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013962</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013963</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>39.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015633</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015634</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1508,7 +4029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2201,366 +4722,6 @@
       </c>
       <c r="H18" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008969</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>141.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.9527</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008970</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5326</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006973</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>太平睿盈混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29.33</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2025</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010268</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平睿安混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>40.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1639</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007669</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>太平睿盈混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0515</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014053</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>太平睿庆混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>014054</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>太平睿庆混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010269</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>太平睿安混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>40.12</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2635,26 +4796,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.65</t>
+          <t>141.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7737</t>
+          <t>4.9527</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2663,32 +4824,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050026</t>
+          <t>008970</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合A</t>
+          <t>睿远均衡价值三年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.62</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0235</t>
+          <t>0.5326</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2701,36 +4862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008970</t>
+          <t>006973</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>睿远均衡价值三年持有期混合C</t>
+          <t>太平睿盈混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>29.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8314</t>
+          <t>0.2025</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2749,22 +4910,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39.48</t>
+          <t>40.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2394</t>
+          <t>0.1639</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2777,32 +4938,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006973</t>
+          <t>007669</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平睿盈混合A</t>
+          <t>太平睿盈混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29.12</t>
+          <t>29.33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2370</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2815,36 +4976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007669</t>
+          <t>014053</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平睿盈混合C</t>
+          <t>太平睿庆混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29.12</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0961</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2853,36 +5014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010269</t>
+          <t>014054</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太平睿安混合C</t>
+          <t>太平睿庆混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>39.48</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2891,36 +5052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011895</t>
+          <t>010269</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合C</t>
+          <t>太平睿安混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>40.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2955,7 +5116,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2995,26 +5156,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>159.35</t>
+          <t>59.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.0553</t>
+          <t>2.7737</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3033,26 +5194,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.59</t>
+          <t>51.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.98</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5882</t>
+          <t>2.0235</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3071,26 +5232,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.68</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6338</t>
+          <t>0.8314</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3109,26 +5270,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36.96</t>
+          <t>39.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1341</t>
+          <t>0.2394</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3152,21 +5313,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.2370</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3185,26 +5346,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3213,36 +5374,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011895</t>
+          <t>010269</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时医疗保健行业混合C</t>
+          <t>太平睿安混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.98</t>
+          <t>39.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3251,36 +5412,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010269</t>
+          <t>011895</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太平睿安混合C</t>
+          <t>博时医疗保健行业混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>36.96</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3289,6 +5450,366 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>159.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3610,7 +6131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4310,706 +6831,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007119</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>睿远成长价值混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>304.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.6492</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008969</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>137.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.1643</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>050026</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时医疗保健行业混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>68.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.1450</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>110023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达医疗保健行业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>53.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.6284</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009468</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时健康成长主题双周定期可赎回混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2815</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007120</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>睿远成长价值混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>34.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0788</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9656</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008970</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>睿远均衡价值三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6771</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009931</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>16.79</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6028</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008186</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3168</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009939</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1554</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1341</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009469</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时健康成长主题双周定期可赎回混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1027</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008187</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1015</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006973</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>太平睿盈混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>22.81</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>570006</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>诺德中小盘混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007669</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>太平睿盈混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>22.81</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>